--- a/View/file/template/翡翠类_入库模板.xlsx
+++ b/View/file/template/翡翠类_入库模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>标签价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -413,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,38 +417,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
